--- a/DATA_goal/Junction_Flooding_38.xlsx
+++ b/DATA_goal/Junction_Flooding_38.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH12"/>
+  <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1690,110 +1690,6 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>40750.78472222222</v>
-      </c>
-      <c r="B12" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="F12" s="4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="G12" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="H12" s="4" t="n">
-        <v>7.27</v>
-      </c>
-      <c r="I12" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="J12" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K12" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="L12" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="M12" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="N12" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O12" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P12" s="4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q12" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="R12" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S12" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="T12" s="4" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="U12" s="4" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="V12" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W12" s="4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="X12" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Y12" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Z12" s="4" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="AA12" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AB12" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AC12" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AD12" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AE12" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AF12" s="4" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="AG12" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AH12" s="4" t="n">
-        <v>1.68</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DATA_goal/Junction_Flooding_38.xlsx
+++ b/DATA_goal/Junction_Flooding_38.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -759,103 +759,103 @@
         <v>40750.72222222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5.37</v>
+        <v>0.54</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.1</v>
+        <v>0.41</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>12.47</v>
+        <v>1.25</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>10.43</v>
+        <v>1.04</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.85</v>
+        <v>0.38</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>11.83</v>
+        <v>1.18</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>6.5</v>
+        <v>0.65</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.03</v>
+        <v>0.3</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>4.86</v>
+        <v>0.49</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.18</v>
+        <v>0.62</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.4</v>
+        <v>0.54</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.12</v>
+        <v>0.21</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.18</v>
+        <v>0.42</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>6.15</v>
+        <v>0.62</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.48</v>
+        <v>0.35</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>60.65</v>
+        <v>6.06</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>11.55</v>
+        <v>1.15</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.83</v>
+        <v>0.38</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>7.98</v>
+        <v>0.8</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>4.05</v>
+        <v>0.41</v>
       </c>
       <c r="Y3" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AD3" s="4" t="n">
         <v>0.62</v>
       </c>
-      <c r="Z3" s="4" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>6.24</v>
-      </c>
       <c r="AE3" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>10.59</v>
+        <v>1.06</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.62</v>
+        <v>0.26</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>4.86</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40750.72916666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>11.29</v>
+        <v>1.13</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8.51</v>
+        <v>0.85</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>25.06</v>
+        <v>2.51</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>20.81</v>
+        <v>2.08</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.630000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>31.44</v>
+        <v>3.14</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>13.68</v>
+        <v>1.37</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.25</v>
+        <v>0.62</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>9.44</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>10.72</v>
+        <v>1.07</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>10.75</v>
+        <v>1.08</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.32</v>
+        <v>0.33</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>8.800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>12.81</v>
+        <v>1.28</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>7.35</v>
+        <v>0.73</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>129.67</v>
+        <v>12.97</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>24.66</v>
+        <v>2.47</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>8.109999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>16.85</v>
+        <v>1.69</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>8.710000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>15.76</v>
+        <v>1.58</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.27</v>
+        <v>0.73</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.75</v>
+        <v>0.68</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7.7</v>
+        <v>0.77</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>11.14</v>
+        <v>1.11</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>28.82</v>
+        <v>2.88</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.94</v>
+        <v>0.49</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>10.18</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>40750.73611111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>10.88</v>
+        <v>1.09</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.18</v>
+        <v>0.82</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>24.03</v>
+        <v>2.4</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>19.95</v>
+        <v>1.99</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.359999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>33.74</v>
+        <v>3.37</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>13.18</v>
+        <v>1.32</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.01</v>
+        <v>0.6</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>9.01</v>
+        <v>0.9</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.09</v>
+        <v>1.01</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>10.3</v>
+        <v>1.03</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.09</v>
+        <v>0.31</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8.48</v>
+        <v>0.85</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>12.33</v>
+        <v>1.23</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.09</v>
+        <v>0.71</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>124.07</v>
+        <v>12.41</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>23.85</v>
+        <v>2.38</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.82</v>
+        <v>0.78</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>16.26</v>
+        <v>1.63</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.42</v>
+        <v>0.84</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.14</v>
+        <v>0.11</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>16.38</v>
+        <v>1.64</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7</v>
+        <v>0.7</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.39</v>
+        <v>0.64</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.38</v>
+        <v>0.74</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>10.53</v>
+        <v>1.05</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>31</v>
+        <v>3.1</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.71</v>
+        <v>0.47</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>9.81</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>40750.74305555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>18.12</v>
+        <v>1.81</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>13.61</v>
+        <v>1.36</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>39.71</v>
+        <v>3.97</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>32.91</v>
+        <v>3.29</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>14.1</v>
+        <v>1.41</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>54.25</v>
+        <v>5.42</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>21.95</v>
+        <v>2.2</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>9.93</v>
+        <v>0.99</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>14.86</v>
+        <v>1.49</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>16.28</v>
+        <v>1.63</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>16.95</v>
+        <v>1.69</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>4.84</v>
+        <v>0.48</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>14.15</v>
+        <v>1.42</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>20.41</v>
+        <v>2.04</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>11.78</v>
+        <v>1.18</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>209.97</v>
+        <v>21</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>39.64</v>
+        <v>3.96</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>13.05</v>
+        <v>1.31</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>26.94</v>
+        <v>2.69</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>14.06</v>
+        <v>1.41</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.88</v>
+        <v>0.19</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>26.56</v>
+        <v>2.66</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>11.62</v>
+        <v>1.16</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>10.37</v>
+        <v>1.04</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>12.11</v>
+        <v>1.21</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>17.06</v>
+        <v>1.71</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>49.42</v>
+        <v>4.94</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>7.65</v>
+        <v>0.76</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>16.35</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>40750.75</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>15.26</v>
+        <v>1.53</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>11.46</v>
+        <v>1.15</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>33.44</v>
+        <v>3.34</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>27.72</v>
+        <v>2.77</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>11.88</v>
+        <v>1.19</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>48.14</v>
+        <v>4.81</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>18.49</v>
+        <v>1.85</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>8.369999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>12.51</v>
+        <v>1.25</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>13.69</v>
+        <v>1.37</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>14.28</v>
+        <v>1.43</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>4.07</v>
+        <v>0.41</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>11.92</v>
+        <v>1.19</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>17.21</v>
+        <v>1.72</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>9.93</v>
+        <v>0.99</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>175.67</v>
+        <v>17.57</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>33.45</v>
+        <v>3.35</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>10.99</v>
+        <v>1.1</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>22.73</v>
+        <v>2.27</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>11.85</v>
+        <v>1.18</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.58</v>
+        <v>0.16</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>23.19</v>
+        <v>2.32</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>9.789999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>8.73</v>
+        <v>0.87</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>10.21</v>
+        <v>1.02</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>14.36</v>
+        <v>1.44</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>43.94</v>
+        <v>4.39</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>6.44</v>
+        <v>0.64</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>13.77</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>40750.75694444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>10.47</v>
+        <v>1.05</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>7.86</v>
+        <v>0.79</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>22.99</v>
+        <v>2.3</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>19.07</v>
+        <v>1.91</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>8.130000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>34.43</v>
+        <v>3.44</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>12.69</v>
+        <v>1.27</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>5.76</v>
+        <v>0.58</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>8.6</v>
+        <v>0.86</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>9.83</v>
+        <v>0.98</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>2.84</v>
+        <v>0.28</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>8.18</v>
+        <v>0.82</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>11.84</v>
+        <v>1.18</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>6.82</v>
+        <v>0.68</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>118.47</v>
+        <v>11.85</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>23</v>
+        <v>2.3</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>7.54</v>
+        <v>0.75</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>15.64</v>
+        <v>1.56</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>8.130000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.09</v>
+        <v>0.11</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>16.38</v>
+        <v>1.64</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>6.73</v>
+        <v>0.67</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>6.02</v>
+        <v>0.6</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>7.03</v>
+        <v>0.7</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>9.91</v>
+        <v>0.99</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>31.5</v>
+        <v>3.15</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>4.45</v>
+        <v>0.44</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>40750.76388888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>9.529999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>7.15</v>
+        <v>0.71</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>20.9</v>
+        <v>2.09</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>17.34</v>
+        <v>1.73</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>7.4</v>
+        <v>0.74</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>30.38</v>
+        <v>3.04</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>11.54</v>
+        <v>1.15</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>5.23</v>
+        <v>0.52</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>7.82</v>
+        <v>0.78</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>8.58</v>
+        <v>0.86</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>8.94</v>
+        <v>0.89</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>2.57</v>
+        <v>0.26</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>7.44</v>
+        <v>0.74</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>10.76</v>
+        <v>1.08</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>6.21</v>
+        <v>0.62</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>107.03</v>
+        <v>10.7</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>20.88</v>
+        <v>2.09</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>6.86</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>14.2</v>
+        <v>1.42</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>7.39</v>
+        <v>0.74</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>14.53</v>
+        <v>1.45</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>6.12</v>
+        <v>0.61</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>5.47</v>
+        <v>0.55</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>6.39</v>
+        <v>0.64</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>9</v>
+        <v>0.9</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>27.71</v>
+        <v>2.77</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>4.04</v>
+        <v>0.4</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>8.59</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>40750.77083333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>3.77</v>
+        <v>0.38</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>2.82</v>
+        <v>0.28</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>8.359999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>6.96</v>
+        <v>0.7</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>2.88</v>
+        <v>0.29</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>15.13</v>
+        <v>1.51</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>4.57</v>
+        <v>0.46</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>2.13</v>
+        <v>0.21</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>3.13</v>
+        <v>0.31</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>3.53</v>
+        <v>0.35</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>3.61</v>
+        <v>0.36</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>1.11</v>
+        <v>0.11</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>2.93</v>
+        <v>0.29</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>4.36</v>
+        <v>0.44</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>2.47</v>
+        <v>0.25</v>
       </c>
       <c r="R10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T10" s="4" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="U10" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="V10" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="W10" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="X10" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="Y10" s="4" t="n">
         <v>0.04</v>
       </c>
-      <c r="S10" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>38.4</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.4</v>
-      </c>
       <c r="Z10" s="4" t="n">
-        <v>6.99</v>
+        <v>0.7</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>2.44</v>
+        <v>0.24</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>2.23</v>
+        <v>0.22</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>2.59</v>
+        <v>0.26</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>3.69</v>
+        <v>0.37</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>14.11</v>
+        <v>1.41</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>1.66</v>
+        <v>0.17</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>3.4</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_38.xlsx
+++ b/DATA_goal/Junction_Flooding_38.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,11 +446,11 @@
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
@@ -462,18 +462,18 @@
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>40750.71527777778</v>
+        <v>44781.04861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>3.93</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>5.88</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>26.16</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>4.92</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>5.19</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>40750.72222222222</v>
+        <v>44781.05555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.54</v>
+        <v>2.11</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.41</v>
+        <v>1.52</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.25</v>
+        <v>4.53</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.04</v>
+        <v>3.75</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.38</v>
+        <v>1.66</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.18</v>
+        <v>6.47</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.65</v>
+        <v>2.56</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.3</v>
+        <v>1.12</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.49</v>
+        <v>1.69</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.62</v>
+        <v>1.82</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.54</v>
+        <v>1.91</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.21</v>
+        <v>0.53</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.42</v>
+        <v>1.65</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.62</v>
+        <v>2.34</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.35</v>
+        <v>1.4</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>6.06</v>
+        <v>24.45</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.15</v>
+        <v>4.63</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.38</v>
+        <v>1.53</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.8</v>
+        <v>3.09</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.41</v>
+        <v>1.64</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.58</v>
+        <v>3.12</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.35</v>
+        <v>1.35</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.38</v>
+        <v>1.21</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.39</v>
+        <v>1.42</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.62</v>
+        <v>1.9</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.06</v>
+        <v>5.85</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.26</v>
+        <v>0.85</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.49</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>40750.72916666666</v>
+        <v>44781.0625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.13</v>
+        <v>1.39</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.51</v>
+        <v>2.99</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.08</v>
+        <v>2.47</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.86</v>
+        <v>1.1</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.14</v>
+        <v>4.5</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.37</v>
+        <v>1.69</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.62</v>
+        <v>0.74</v>
       </c>
       <c r="K4" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>15.86</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AC4" s="4" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="L4" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.77</v>
-      </c>
       <c r="AD4" s="4" t="n">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.88</v>
+        <v>4.07</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.49</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.02</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>40750.73611111111</v>
+        <v>44781.06944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.09</v>
+        <v>0.48</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.82</v>
+        <v>0.33</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.4</v>
+        <v>1.01</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.99</v>
+        <v>0.84</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.84</v>
+        <v>0.38</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.37</v>
+        <v>1.92</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.32</v>
+        <v>0.58</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.9</v>
+        <v>0.37</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.01</v>
+        <v>0.42</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.03</v>
+        <v>0.42</v>
       </c>
       <c r="N5" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AA5" s="4" t="n">
         <v>0.31</v>
       </c>
-      <c r="O5" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>12.41</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.7</v>
-      </c>
       <c r="AB5" s="4" t="n">
-        <v>0.64</v>
+        <v>0.28</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.74</v>
+        <v>0.33</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.05</v>
+        <v>0.43</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.47</v>
+        <v>0.19</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.98</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>40750.74305555555</v>
+        <v>44781.07637731481</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.81</v>
+        <v>8.65</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.36</v>
+        <v>6.23</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.05</v>
+        <v>0.72</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>3.97</v>
+        <v>18.56</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>3.29</v>
+        <v>15.35</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.41</v>
+        <v>6.81</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>5.42</v>
+        <v>25.66</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2.2</v>
+        <v>10.47</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.99</v>
+        <v>4.56</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.49</v>
+        <v>6.85</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.63</v>
+        <v>7.55</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.69</v>
+        <v>7.82</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.48</v>
+        <v>2.17</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.42</v>
+        <v>6.77</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>2.04</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>1.18</v>
+        <v>5.81</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.02</v>
+        <v>0.62</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>21</v>
+        <v>95.65000000000001</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>3.96</v>
+        <v>18.85</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.31</v>
+        <v>6.25</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>2.69</v>
+        <v>12.54</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.41</v>
+        <v>6.78</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.19</v>
+        <v>0.8</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>2.66</v>
+        <v>12.29</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1.16</v>
+        <v>5.52</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>1.04</v>
+        <v>4.96</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.21</v>
+        <v>5.82</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.71</v>
+        <v>7.86</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.02</v>
+        <v>0.44</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>4.94</v>
+        <v>22.94</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.76</v>
+        <v>3.47</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.64</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>40750.75</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>17.57</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.38</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>40750.75694444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>40750.76388888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>40750.77083333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>40750.77777777778</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>6.27</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>26.93</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>6.24</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>9.68</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>2.54</v>
+        <v>7.81</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_38.xlsx
+++ b/DATA_goal/Junction_Flooding_38.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44781.04861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.26</v>
+        <v>22.58</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.55</v>
+        <v>15.54</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.42</v>
+        <v>4.22</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.75</v>
+        <v>47.49</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.93</v>
+        <v>39.28</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.78</v>
+        <v>17.77</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.88</v>
+        <v>58.8</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.73</v>
+        <v>27.34</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.16</v>
+        <v>11.61</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.79</v>
+        <v>17.88</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.88</v>
+        <v>18.83</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.97</v>
+        <v>19.73</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.57</v>
+        <v>5.67</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.77</v>
+        <v>17.67</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.48</v>
+        <v>24.85</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.48</v>
+        <v>14.79</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.78</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.46</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>26.16</v>
+        <v>261.62</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.92</v>
+        <v>49.2</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.63</v>
+        <v>16.31</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.26</v>
+        <v>32.64</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.7</v>
+        <v>17.03</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.11</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.93</v>
+        <v>29.27</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.44</v>
+        <v>14.41</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.29</v>
+        <v>12.94</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.51</v>
+        <v>15.14</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.95</v>
+        <v>19.49</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.19</v>
+        <v>51.9</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.91</v>
+        <v>9.07</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.04</v>
+        <v>20.39</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44781.05555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.11</v>
+        <v>21.14</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.52</v>
+        <v>15.19</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.2</v>
+        <v>1.98</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.53</v>
+        <v>45.34</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.75</v>
+        <v>37.51</v>
       </c>
       <c r="G3" s="4" t="n">
+        <v>16.64</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>64.68000000000001</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>16.85</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>18.23</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>19.08</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>23.43</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>14.02</v>
+      </c>
+      <c r="R3" s="4" t="n">
         <v>1.66</v>
       </c>
-      <c r="H3" s="4" t="n">
-        <v>6.47</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.17</v>
-      </c>
       <c r="S3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>24.45</v>
+        <v>244.48</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.63</v>
+        <v>46.29</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.53</v>
+        <v>15.27</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.09</v>
+        <v>30.9</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.64</v>
+        <v>16.43</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.2</v>
+        <v>2.01</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.12</v>
+        <v>31.25</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.35</v>
+        <v>13.49</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.21</v>
+        <v>12.09</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.42</v>
+        <v>14.18</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.9</v>
+        <v>19.03</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.85</v>
+        <v>58.49</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.85</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.91</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.0625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.39</v>
+        <v>13.93</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1</v>
+        <v>10.01</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.24</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.99</v>
+        <v>29.89</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.47</v>
+        <v>24.73</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.1</v>
+        <v>10.96</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.5</v>
+        <v>45</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.69</v>
+        <v>16.87</v>
       </c>
       <c r="J4" s="4" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>15.44</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="S4" s="4" t="n">
         <v>0.74</v>
       </c>
-      <c r="K4" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="T4" s="4" t="n">
-        <v>15.86</v>
+        <v>158.64</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.06</v>
+        <v>30.56</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.01</v>
+        <v>10.06</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.04</v>
+        <v>20.37</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.09</v>
+        <v>10.89</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.3</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.13</v>
+        <v>21.32</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.89</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.8</v>
+        <v>7.99</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.26</v>
+        <v>12.6</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.07</v>
+        <v>40.69</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.6</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.26</v>
+        <v>12.58</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44781.06944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.8</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.27</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.01</v>
+        <v>10.14</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.84</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.78</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.92</v>
+        <v>19.2</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.82</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="K5" s="4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="S5" s="4" t="n">
         <v>0.37</v>
       </c>
-      <c r="L5" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="T5" s="4" t="n">
-        <v>4.99</v>
+        <v>49.94</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.07</v>
+        <v>10.74</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.47</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.7</v>
+        <v>7.05</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.84</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.69</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.07</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.84</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.31</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.3</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.75</v>
+        <v>17.53</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.87</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_38.xlsx
+++ b/DATA_goal/Junction_Flooding_38.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -658,100 +658,100 @@
         <v>22.58</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>15.54</v>
+        <v>15.542</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.22</v>
+        <v>4.221</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>47.49</v>
+        <v>47.493</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>39.28</v>
+        <v>39.284</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>17.77</v>
+        <v>17.769</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>58.8</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>27.34</v>
+        <v>27.341</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>11.61</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>17.88</v>
+        <v>17.881</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>18.83</v>
+        <v>18.828</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>19.73</v>
+        <v>19.728</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.67</v>
+        <v>5.673</v>
       </c>
       <c r="O2" s="4" t="n">
         <v>17.67</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>24.85</v>
+        <v>24.849</v>
       </c>
       <c r="Q2" s="4" t="n">
         <v>14.79</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.78</v>
+        <v>3.779</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>2.46</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>261.62</v>
+        <v>261.617</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>49.2</v>
+        <v>49.202</v>
       </c>
       <c r="V2" s="4" t="n">
         <v>16.31</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>32.64</v>
+        <v>32.642</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>17.03</v>
+        <v>17.025</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.11</v>
+        <v>2.109</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>29.27</v>
+        <v>29.266</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>14.41</v>
+        <v>14.407</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.94</v>
+        <v>12.944</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>15.14</v>
+        <v>15.145</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>19.49</v>
+        <v>19.485</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>51.9</v>
+        <v>51.902</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.07</v>
+        <v>9.071</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>20.39</v>
+        <v>20.391</v>
       </c>
     </row>
     <row r="3">
@@ -759,67 +759,67 @@
         <v>44781.05555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>21.14</v>
+        <v>21.139</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>15.19</v>
+        <v>15.193</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.98</v>
+        <v>1.975</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>45.34</v>
+        <v>45.339</v>
       </c>
       <c r="F3" s="4" t="n">
         <v>37.51</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>16.64</v>
+        <v>16.636</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>64.68000000000001</v>
+        <v>64.681</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>25.6</v>
+        <v>25.596</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>11.18</v>
+        <v>11.181</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>16.85</v>
+        <v>16.851</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>18.23</v>
+        <v>18.227</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>19.08</v>
+        <v>19.084</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.31</v>
+        <v>5.314</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>16.54</v>
+        <v>16.542</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>23.43</v>
+        <v>23.429</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>14.02</v>
+        <v>14.022</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.66</v>
+        <v>1.663</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>1.2</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>244.48</v>
+        <v>244.484</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>46.29</v>
+        <v>46.287</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>15.27</v>
+        <v>15.269</v>
       </c>
       <c r="W3" s="4" t="n">
         <v>30.9</v>
@@ -828,31 +828,31 @@
         <v>16.43</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.01</v>
+        <v>2.011</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>31.25</v>
+        <v>31.247</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>13.49</v>
+        <v>13.487</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>12.09</v>
+        <v>12.093</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>14.18</v>
+        <v>14.181</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>19.03</v>
+        <v>19.031</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>58.49</v>
+        <v>58.487</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>8.539999999999999</v>
+        <v>8.537000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
         <v>19.09</v>
@@ -863,103 +863,103 @@
         <v>44781.0625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>13.93</v>
+        <v>13.932</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>10.01</v>
+        <v>10.014</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.24</v>
+        <v>1.241</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>29.89</v>
+        <v>29.888</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>24.73</v>
+        <v>24.729</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>10.96</v>
+        <v>10.964</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>45</v>
+        <v>45.004</v>
       </c>
       <c r="I4" s="4" t="n">
         <v>16.87</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.37</v>
+        <v>7.374</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>11.07</v>
+        <v>11.068</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>12.08</v>
+        <v>12.077</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>12.59</v>
+        <v>12.589</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.5</v>
+        <v>3.504</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>10.9</v>
+        <v>10.903</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>15.44</v>
+        <v>15.437</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>9.31</v>
+        <v>9.308999999999999</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.06</v>
+        <v>1.062</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.74</v>
+        <v>0.738</v>
       </c>
       <c r="T4" s="4" t="n">
         <v>158.64</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>30.56</v>
+        <v>30.562</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>10.06</v>
+        <v>10.064</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>20.37</v>
+        <v>20.366</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>10.89</v>
+        <v>10.895</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.3</v>
+        <v>1.302</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>21.32</v>
+        <v>21.316</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>8.890000000000001</v>
+        <v>8.888999999999999</v>
       </c>
       <c r="AB4" s="4" t="n">
         <v>7.99</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>9.368</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>12.6</v>
+        <v>12.603</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>40.69</v>
+        <v>40.691</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.6</v>
+        <v>5.604</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>12.58</v>
+        <v>12.582</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>4.34</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.07637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>8.65</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6.23</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>18.56</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>15.35</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>6.81</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>25.66</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>6.85</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>95.65000000000001</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>18.85</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>12.54</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.52</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>22.94</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>7.81</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_38.xlsx
+++ b/DATA_goal/Junction_Flooding_38.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,61 +967,61 @@
         <v>44781.06944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.8</v>
+        <v>4.804</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.27</v>
+        <v>3.272</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.72</v>
+        <v>0.718</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>10.14</v>
+        <v>10.137</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>8.390000000000001</v>
+        <v>8.391</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.78</v>
+        <v>3.781</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>19.2</v>
+        <v>19.197</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>5.82</v>
+        <v>5.817</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.5</v>
+        <v>2.496</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.7</v>
+        <v>3.695</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.16</v>
+        <v>4.164</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.23</v>
+        <v>4.231</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.22</v>
+        <v>1.215</v>
       </c>
       <c r="O5" s="4" t="n">
         <v>3.76</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.31</v>
+        <v>5.306</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.35</v>
+        <v>3.349</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.73</v>
+        <v>0.735</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.37</v>
+        <v>0.366</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>49.94</v>
+        <v>49.937</v>
       </c>
       <c r="U5" s="4" t="n">
         <v>10.74</v>
@@ -1030,40 +1030,144 @@
         <v>3.47</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>7.05</v>
+        <v>7.048</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.84</v>
+        <v>3.836</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.39</v>
+        <v>0.386</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>8.69</v>
+        <v>8.695</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.07</v>
+        <v>3.065</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.84</v>
+        <v>2.841</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.31</v>
+        <v>3.314</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>4.3</v>
+        <v>4.298</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>17.53</v>
+        <v>17.533</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.87</v>
+        <v>1.866</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>4.34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.07637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>18.56</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>95.65000000000001</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>7.81</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_38.xlsx
+++ b/DATA_goal/Junction_Flooding_38.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,61 +967,61 @@
         <v>44781.06944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.804</v>
+        <v>4.8</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.272</v>
+        <v>3.27</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.718</v>
+        <v>0.72</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>10.137</v>
+        <v>10.14</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>8.391</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.781</v>
+        <v>3.78</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>19.197</v>
+        <v>19.2</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>5.817</v>
+        <v>5.82</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.496</v>
+        <v>2.5</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.695</v>
+        <v>3.7</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.164</v>
+        <v>4.16</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.231</v>
+        <v>4.23</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.215</v>
+        <v>1.22</v>
       </c>
       <c r="O5" s="4" t="n">
         <v>3.76</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.306</v>
+        <v>5.31</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.349</v>
+        <v>3.35</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.735</v>
+        <v>0.73</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.366</v>
+        <v>0.37</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>49.937</v>
+        <v>49.94</v>
       </c>
       <c r="U5" s="4" t="n">
         <v>10.74</v>
@@ -1030,144 +1030,40 @@
         <v>3.47</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>7.048</v>
+        <v>7.05</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.836</v>
+        <v>3.84</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.386</v>
+        <v>0.39</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>8.695</v>
+        <v>8.69</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.065</v>
+        <v>3.07</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.841</v>
+        <v>2.84</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.314</v>
+        <v>3.31</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>4.298</v>
+        <v>4.3</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>17.533</v>
+        <v>17.53</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.866</v>
+        <v>1.87</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>4.34</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.07637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>8.65</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6.23</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>18.56</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>15.35</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>6.81</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>25.66</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>6.85</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>95.65000000000001</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>18.85</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>12.54</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.52</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>22.94</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>7.81</v>
       </c>
     </row>
   </sheetData>
